--- a/biology/Botanique/Kartoffelschnapspest/Kartoffelschnapspest.xlsx
+++ b/biology/Botanique/Kartoffelschnapspest/Kartoffelschnapspest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Kartoffelschnapspest, ou « peste de l'alcool » était le nom donné dans la seconde moitié du XIXe siècle en Suisse et au Tyrol à la consommation excessive et malsaine d'eau-de-vie de pommes de terre qui s'était répandue comme une épidémie. En Allemagne où l'alcoolisme à l'eau-de-vie de pommes de terre s'était aussi répandu, on parlait plutôt de Branntweinpest.
 </t>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec la Constitution fédérale de 1874, la liberté du commerce et de l'industrie a été introduite en Suisse. Dès lors, plus aucune restriction gouvernementale ne s'appliquait aux points de vente. Un Kartoffelschnaps, eau-de-vie de pommes de terre appelée aussi Härdöpfeler, de mauvaise qualité était produit à cette époque dans les petites distilleries paysannes des cantons agricoles. Il a servi de substitut alimentaire et de drogue aux pauvres des campagnes et à la classe ouvrière. La cécité et la mort provoquées par l'huile de fusel étaient monnaie courante. 
-L'impuissance des cantons dans la lutte contre la « peste de l'alcool » est vite devenue évidente, si bien que le gouvernement fédéral a été contraint d'intervenir. Après un débat intense, une votation populaire permet l'adoption en octobre 1885 du nouvel article constitutionnel sur la « question de l'alcool » afin de mettre fin à cet usage abusif[1]. 
+L'impuissance des cantons dans la lutte contre la « peste de l'alcool » est vite devenue évidente, si bien que le gouvernement fédéral a été contraint d'intervenir. Après un débat intense, une votation populaire permet l'adoption en octobre 1885 du nouvel article constitutionnel sur la « question de l'alcool » afin de mettre fin à cet usage abusif. 
 La loi sur l'alcool de 1887 a été adoptée dans le même esprit. Le premier règlement sur l'alcool s'appliquait seulement à l'eau-de-vie de pommes de terre, mais pas aux produits de la distillation de baies, de fruits et de vin. Ce n'est qu'en 1930, une année après qu'une initiative populaire fédérale « contre l'eau-de-vie » ait été rejetée en votation, qu'un nouvel article (32 bis) a été ajouté à la Constitution fédérale, englobant désormais tous les spiritueux.
 </t>
         </is>
